--- a/Manuscripts/src/tables/WS3_pfeatures-Criteria-Acc.xlsx
+++ b/Manuscripts/src/tables/WS3_pfeatures-Criteria-Acc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Accuracy Right</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -461,6 +466,11 @@
           <t>69.69 +/- 1.50 (67.00, 71.84)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.98 +/- 2.38 (63.32, 72.43)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -478,6 +488,11 @@
           <t>71.07 +/- 2.03 (68.12, 74.15)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.84 +/- 2.79 (63.71, 74.71)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -493,6 +508,11 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>73.59 +/- 2.44 (68.79, 76.69)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.36 +/- 2.68 (67.06, 76.98)</t>
         </is>
       </c>
     </row>
